--- a/docentes/Cruz Alejo José Armando - Estadisticos 2020.xlsx
+++ b/docentes/Cruz Alejo José Armando - Estadisticos 2020.xlsx
@@ -721,7 +721,7 @@
         <v>9</v>
       </c>
       <c r="G2">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -744,7 +744,7 @@
         <v>9</v>
       </c>
       <c r="G3">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -767,7 +767,7 @@
         <v>9</v>
       </c>
       <c r="G4">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -790,7 +790,7 @@
         <v>9</v>
       </c>
       <c r="G5">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -813,7 +813,7 @@
         <v>9</v>
       </c>
       <c r="G6">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/docentes/Cruz Alejo José Armando - Estadisticos 2020.xlsx
+++ b/docentes/Cruz Alejo José Armando - Estadisticos 2020.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="16">
   <si>
     <t>Mat</t>
   </si>
@@ -65,51 +65,6 @@
   </si>
   <si>
     <t>Reprobadas</t>
-  </si>
-  <si>
-    <t>FLORES</t>
-  </si>
-  <si>
-    <t>GARCIA</t>
-  </si>
-  <si>
-    <t>HERNANDEZ</t>
-  </si>
-  <si>
-    <t>MOLOHUA</t>
-  </si>
-  <si>
-    <t>REYES</t>
-  </si>
-  <si>
-    <t>JUAREZ</t>
-  </si>
-  <si>
-    <t>GUZMAN</t>
-  </si>
-  <si>
-    <t>BALDERAS</t>
-  </si>
-  <si>
-    <t>JIMENEZ</t>
-  </si>
-  <si>
-    <t>VINALAY</t>
-  </si>
-  <si>
-    <t>LUIS ANGEL</t>
-  </si>
-  <si>
-    <t>ALEXIS MANUEL</t>
-  </si>
-  <si>
-    <t>JUAN MANUEL</t>
-  </si>
-  <si>
-    <t>JESUS HAZAEL</t>
-  </si>
-  <si>
-    <t>ANGEL SAID</t>
   </si>
 </sst>
 </file>
@@ -513,19 +468,19 @@
         <v>39</v>
       </c>
       <c r="D2">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="G2">
-        <v>64.09999999999999</v>
+        <v>71.79000000000001</v>
       </c>
       <c r="H2">
-        <v>8</v>
+        <v>7.8</v>
       </c>
     </row>
   </sheetData>
@@ -584,7 +539,7 @@
         <v>39</v>
       </c>
       <c r="E2">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -646,19 +601,19 @@
         <v>39</v>
       </c>
       <c r="D2">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="G2">
-        <v>64.09999999999999</v>
+        <v>71.79000000000001</v>
       </c>
       <c r="H2">
-        <v>8</v>
+        <v>7.8</v>
       </c>
     </row>
   </sheetData>
@@ -668,7 +623,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -701,121 +656,6 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
-      <c r="A2">
-        <v>20330051920013</v>
-      </c>
-      <c r="B2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3">
-        <v>20330051920014</v>
-      </c>
-      <c r="B3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" t="s">
-        <v>27</v>
-      </c>
-      <c r="E3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F3" t="s">
-        <v>9</v>
-      </c>
-      <c r="G3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4">
-        <v>20330051920015</v>
-      </c>
-      <c r="B4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" t="s">
-        <v>28</v>
-      </c>
-      <c r="E4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F4" t="s">
-        <v>9</v>
-      </c>
-      <c r="G4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5">
-        <v>20330051920023</v>
-      </c>
-      <c r="B5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>29</v>
-      </c>
-      <c r="E5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F5" t="s">
-        <v>9</v>
-      </c>
-      <c r="G5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6">
-        <v>20330051920060</v>
-      </c>
-      <c r="B6" t="s">
-        <v>20</v>
-      </c>
-      <c r="C6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" t="s">
-        <v>30</v>
-      </c>
-      <c r="E6" t="s">
-        <v>8</v>
-      </c>
-      <c r="F6" t="s">
-        <v>9</v>
-      </c>
-      <c r="G6">
-        <v>1</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/docentes/Cruz Alejo José Armando - Estadisticos 2020.xlsx
+++ b/docentes/Cruz Alejo José Armando - Estadisticos 2020.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="22">
   <si>
     <t>Mat</t>
   </si>
@@ -65,6 +65,24 @@
   </si>
   <si>
     <t>Reprobadas</t>
+  </si>
+  <si>
+    <t>GARCIA</t>
+  </si>
+  <si>
+    <t>HERNANDEZ</t>
+  </si>
+  <si>
+    <t>GUZMAN</t>
+  </si>
+  <si>
+    <t>BALDERAS</t>
+  </si>
+  <si>
+    <t>ALEXIS MANUEL</t>
+  </si>
+  <si>
+    <t>JUAN MANUEL</t>
   </si>
 </sst>
 </file>
@@ -468,19 +486,19 @@
         <v>39</v>
       </c>
       <c r="D2">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G2">
-        <v>71.79000000000001</v>
+        <v>74.36</v>
       </c>
       <c r="H2">
-        <v>7.8</v>
+        <v>7.7</v>
       </c>
     </row>
   </sheetData>
@@ -536,16 +554,19 @@
         <v>39</v>
       </c>
       <c r="D2">
-        <v>39</v>
+        <v>17</v>
       </c>
       <c r="E2">
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>56.41</v>
+      </c>
+      <c r="H2">
+        <v>7.7</v>
       </c>
     </row>
   </sheetData>
@@ -601,19 +622,19 @@
         <v>39</v>
       </c>
       <c r="D2">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G2">
-        <v>71.79000000000001</v>
+        <v>74.36</v>
       </c>
       <c r="H2">
-        <v>7.8</v>
+        <v>7.7</v>
       </c>
     </row>
   </sheetData>
@@ -623,7 +644,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -656,6 +677,52 @@
         <v>15</v>
       </c>
     </row>
+    <row r="2" spans="1:7">
+      <c r="A2">
+        <v>20330051920014</v>
+      </c>
+      <c r="B2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3">
+        <v>20330051920015</v>
+      </c>
+      <c r="B3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/docentes/Cruz Alejo José Armando - Estadisticos 2020.xlsx
+++ b/docentes/Cruz Alejo José Armando - Estadisticos 2020.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="25">
   <si>
     <t>Mat</t>
   </si>
@@ -67,22 +67,31 @@
     <t>Reprobadas</t>
   </si>
   <si>
+    <t>FLORES</t>
+  </si>
+  <si>
+    <t>TZANAHUA</t>
+  </si>
+  <si>
     <t>GARCIA</t>
   </si>
   <si>
-    <t>HERNANDEZ</t>
+    <t>JUAREZ</t>
+  </si>
+  <si>
+    <t>GONZALEZ</t>
   </si>
   <si>
     <t>GUZMAN</t>
   </si>
   <si>
-    <t>BALDERAS</t>
+    <t>LUIS ANGEL</t>
+  </si>
+  <si>
+    <t>XIMENA</t>
   </si>
   <si>
     <t>ALEXIS MANUEL</t>
-  </si>
-  <si>
-    <t>JUAN MANUEL</t>
   </si>
 </sst>
 </file>
@@ -554,16 +563,16 @@
         <v>39</v>
       </c>
       <c r="D2">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F2">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G2">
-        <v>56.41</v>
+        <v>58.97</v>
       </c>
       <c r="H2">
         <v>7.7</v>
@@ -644,7 +653,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -679,16 +688,16 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2">
-        <v>20330051920014</v>
+        <v>20330051920013</v>
       </c>
       <c r="B2" t="s">
         <v>16</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E2" t="s">
         <v>8</v>
@@ -702,16 +711,16 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3">
-        <v>20330051920015</v>
+        <v>20330051920030</v>
       </c>
       <c r="B3" t="s">
         <v>17</v>
       </c>
       <c r="C3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E3" t="s">
         <v>8</v>
@@ -721,6 +730,29 @@
       </c>
       <c r="G3">
         <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4">
+        <v>20330051920014</v>
+      </c>
+      <c r="B4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
